--- a/DATA_goal/Junction_Flooding_419.xlsx
+++ b/DATA_goal/Junction_Flooding_419.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="Z3" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF3" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>0</v>

--- a/DATA_goal/Junction_Flooding_419.xlsx
+++ b/DATA_goal/Junction_Flooding_419.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.88194444445</v>
+        <v>45100.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.88888888889</v>
+        <v>45100.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.64</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.47</v>
+        <v>9.414</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.37</v>
+        <v>1.718</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.11</v>
+        <v>28.608</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.26</v>
+        <v>23.668</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.31</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.66</v>
+        <v>42.895</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.82</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.17</v>
+        <v>7.001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.9</v>
+        <v>10.581</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.44</v>
+        <v>11.535</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.86</v>
+        <v>12.001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>3.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.83</v>
+        <v>14.828</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.51</v>
+        <v>9.055</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.594</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.978</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>152.919</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.4</v>
+        <v>29.521</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.64</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.06</v>
+        <v>19.527</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.27</v>
+        <v>10.455</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>1.201</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.16</v>
+        <v>20.432</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.88</v>
+        <v>7.795</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>9.122</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.02</v>
+        <v>11.993</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.41</v>
+        <v>38.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.361</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.31</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.89583333334</v>
+        <v>45100.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>14.893</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>10.734</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.273</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>31.973</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>26.444</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>11.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.51</v>
+        <v>45.754</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>18.033</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>7.887</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>11.831</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>12.926</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>13.493</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.744</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>11.655</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>16.495</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>9.94</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>1.068</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.769</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>170.073</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>32.594</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>10.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>21.735</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>1.387</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.35</v>
+        <v>21.991</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>8.529</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>10.003</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>13.496</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.98</v>
+        <v>41.255</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>5.994</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>45100.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>15.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.74</v>
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_419.xlsx
+++ b/DATA_goal/Junction_Flooding_419.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45100.50694444445</v>
+        <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.1</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.162</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.209</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.427</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.398</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.391</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.345</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.759</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.337</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.452</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.439</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.302</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.553</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.294</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.297</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.517</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.762</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.458</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>255.893</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.146</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.963</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.894</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.657</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.022</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.586</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.689</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.848</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.074</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>50.56</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.856</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.957</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45100.51388888889</v>
+        <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.452</v>
+        <v>0.638</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.414</v>
+        <v>1.473</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.718</v>
+        <v>0.365</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.608</v>
+        <v>2.105</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.668</v>
+        <v>2.261</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.586</v>
+        <v>1.311</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>42.895</v>
+        <v>5.658</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.288</v>
+        <v>1.823</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.001</v>
+        <v>1.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.581</v>
+        <v>1.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.535</v>
+        <v>2.437</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.001</v>
+        <v>0.858</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.383</v>
+        <v>0.107</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.527</v>
+        <v>0.597</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.828</v>
+        <v>1.833</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.055</v>
+        <v>0.508</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.594</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.978</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.919</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.521</v>
+        <v>3.402</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>0.638</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.527</v>
+        <v>2.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.455</v>
+        <v>2.269</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.201</v>
+        <v>0.225</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.432</v>
+        <v>3.163</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.583</v>
+        <v>0.892</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.795</v>
+        <v>1.876</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.122</v>
+        <v>0.247</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.993</v>
+        <v>2.016</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.79</v>
+        <v>5.406</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.361</v>
+        <v>0.536</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.148</v>
+        <v>1.308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45100.52083333334</v>
+        <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.893</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.734</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.273</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.973</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.444</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.72</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.754</v>
+        <v>0.512</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.033</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.887</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.831</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.926</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.493</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.744</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.655</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.495</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.068</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>170.073</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.594</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.758</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.735</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.635</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.387</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.991</v>
+        <v>0.352</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.529</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.003</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.496</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.255</v>
+        <v>0.983</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.994</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45100.52777777778</v>
+        <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.68</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.90971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.74</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_419.xlsx
+++ b/DATA_goal/Junction_Flooding_419.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.88194444445</v>
+        <v>45100.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.88888888889</v>
+        <v>45100.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.638</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.473</v>
+        <v>9.414</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.365</v>
+        <v>1.718</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.105</v>
+        <v>28.608</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.261</v>
+        <v>23.668</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.311</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.658</v>
+        <v>42.895</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.823</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.17</v>
+        <v>7.001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.9</v>
+        <v>10.581</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.437</v>
+        <v>11.535</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.858</v>
+        <v>12.001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.107</v>
+        <v>3.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.597</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.833</v>
+        <v>14.828</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.508</v>
+        <v>9.055</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.594</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.978</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.545999999999999</v>
+        <v>152.919</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.402</v>
+        <v>29.521</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.638</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.06</v>
+        <v>19.527</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.269</v>
+        <v>10.455</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.225</v>
+        <v>1.201</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.163</v>
+        <v>20.432</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.892</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.876</v>
+        <v>7.795</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.247</v>
+        <v>9.122</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.016</v>
+        <v>11.993</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.406</v>
+        <v>38.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.536</v>
+        <v>5.361</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.308</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.89583333334</v>
+        <v>45100.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>14.893</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>10.734</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>1.273</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>31.973</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>26.444</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>11.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.512</v>
+        <v>45.754</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>18.033</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>7.887</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>11.831</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>12.926</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>13.493</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.744</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>11.655</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>16.495</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>9.94</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>1.068</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.769</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>170.073</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>32.594</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>10.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>21.735</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>1.387</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.352</v>
+        <v>21.991</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>8.529</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>10.003</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>13.496</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.983</v>
+        <v>41.255</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>5.994</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>45100.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>15.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.74</v>
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
